--- a/sample_1_1.xlsx
+++ b/sample_1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>год</t>
   </si>
@@ -43,9 +43,6 @@
     <t>A, D</t>
   </si>
   <si>
-    <t>тут у нас произошла пачка связанных событий, связанных в одну группу, факторы A, B основные, остальное помехи</t>
-  </si>
-  <si>
     <t>A, F</t>
   </si>
   <si>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>а тут их дубликат с искажениями</t>
+  </si>
+  <si>
+    <t>тут у нас произошла пачка связанных событий, связанных в одну группу, факторы A, B основные, остальное помехи. обозначим эту группу событий классом 1. для примера считаем что нерелевантных событий здесь нет.</t>
   </si>
 </sst>
 </file>
@@ -88,8 +88,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -384,19 +387,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="66.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="66.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,15 +416,18 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    <row r="3" spans="1:6" ht="42">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>100</v>
       </c>
@@ -428,8 +437,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>110</v>
       </c>
@@ -439,8 +451,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>120</v>
       </c>
@@ -450,8 +465,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>130</v>
       </c>
@@ -461,29 +479,32 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>201</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>121</v>
       </c>
@@ -491,7 +512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>132</v>
       </c>

--- a/sample_1_1.xlsx
+++ b/sample_1_1.xlsx
@@ -52,7 +52,7 @@
     <t>а тут их дубликат с искажениями</t>
   </si>
   <si>
-    <t>тут у нас произошла пачка связанных событий, связанных в одну группу, факторы A, B основные, остальное помехи. обозначим эту группу событий классом 1. для примера считаем что нерелевантных событий здесь нет.</t>
+    <t>тут у нас произошла пачка связанных событий, связанных в одну группу. факторы A, B основные, остальное помехи. обозначим эту группу событий классом 1. для примера считаем что нерелевантных событий здесь нет.</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -498,7 +498,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>

--- a/sample_1_1.xlsx
+++ b/sample_1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>год</t>
   </si>
@@ -53,6 +53,30 @@
   </si>
   <si>
     <t>тут у нас произошла пачка связанных событий, связанных в одну группу. факторы A, B основные, остальное помехи. обозначим эту группу событий классом 1. для примера считаем что нерелевантных событий здесь нет.</t>
+  </si>
+  <si>
+    <t>описание 1</t>
+  </si>
+  <si>
+    <t>описание 2</t>
+  </si>
+  <si>
+    <t>описание 3</t>
+  </si>
+  <si>
+    <t>описание 4</t>
+  </si>
+  <si>
+    <t>описание А</t>
+  </si>
+  <si>
+    <t>описание Б</t>
+  </si>
+  <si>
+    <t>описание В</t>
+  </si>
+  <si>
+    <t>описание Г</t>
   </si>
 </sst>
 </file>
@@ -390,7 +414,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -431,6 +455,9 @@
       <c r="A4">
         <v>100</v>
       </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -445,6 +472,9 @@
       <c r="A5">
         <v>110</v>
       </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -459,6 +489,9 @@
       <c r="A6">
         <v>120</v>
       </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -473,6 +506,9 @@
       <c r="A7">
         <v>130</v>
       </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -492,6 +528,9 @@
       <c r="A10">
         <v>201</v>
       </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -500,6 +539,9 @@
       <c r="A11">
         <v>208</v>
       </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -508,6 +550,9 @@
       <c r="A12">
         <v>221</v>
       </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -515,6 +560,9 @@
     <row r="13" spans="1:6">
       <c r="A13">
         <v>232</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>

--- a/sample_1_1.xlsx
+++ b/sample_1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>год</t>
   </si>
@@ -77,6 +77,27 @@
   </si>
   <si>
     <t>описание Г</t>
+  </si>
+  <si>
+    <t>ещё один тестовый класс</t>
+  </si>
+  <si>
+    <t>класс2-1</t>
+  </si>
+  <si>
+    <t>класс2-2</t>
+  </si>
+  <si>
+    <t>класс2-3</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>D, F</t>
   </si>
 </sst>
 </file>
@@ -411,22 +432,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="66.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="66.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,18 +460,15 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42">
-      <c r="F3" s="1" t="s">
+    <row r="3" spans="1:5" ht="42">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>100</v>
       </c>
@@ -464,11 +481,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>110</v>
       </c>
@@ -481,11 +495,8 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>120</v>
       </c>
@@ -498,11 +509,8 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>130</v>
       </c>
@@ -515,16 +523,13 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="F9" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>201</v>
       </c>
@@ -535,7 +540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>208</v>
       </c>
@@ -546,7 +551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>221</v>
       </c>
@@ -557,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>232</v>
       </c>
@@ -566,6 +571,53 @@
       </c>
       <c r="C13" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>501</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>502</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>503</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
